--- a/EXCEL_OUPUT/21 YMA Consol Statutory Accounts SIGNED.xlsx
+++ b/EXCEL_OUPUT/21 YMA Consol Statutory Accounts SIGNED.xlsx
@@ -7,14 +7,2725 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="page5_table0" sheetId="1" r:id="rId1"/>
+    <sheet name="page40_table0" sheetId="1" r:id="rId1"/>
+    <sheet name="page40_table1" sheetId="2" r:id="rId2"/>
+    <sheet name="page39_table0" sheetId="3" r:id="rId3"/>
+    <sheet name="page39_table1" sheetId="4" r:id="rId4"/>
+    <sheet name="page38_table0" sheetId="5" r:id="rId5"/>
+    <sheet name="page37_table0" sheetId="6" r:id="rId6"/>
+    <sheet name="page36_table0" sheetId="7" r:id="rId7"/>
+    <sheet name="page36_table1" sheetId="8" r:id="rId8"/>
+    <sheet name="page35_table0" sheetId="9" r:id="rId9"/>
+    <sheet name="page35_table1" sheetId="10" r:id="rId10"/>
+    <sheet name="page34_table0" sheetId="11" r:id="rId11"/>
+    <sheet name="page34_table1" sheetId="12" r:id="rId12"/>
+    <sheet name="page33_table0" sheetId="13" r:id="rId13"/>
+    <sheet name="page32_table0" sheetId="14" r:id="rId14"/>
+    <sheet name="page32_table1" sheetId="15" r:id="rId15"/>
+    <sheet name="page31_table0" sheetId="16" r:id="rId16"/>
+    <sheet name="page30_table0" sheetId="17" r:id="rId17"/>
+    <sheet name="page29_table0" sheetId="18" r:id="rId18"/>
+    <sheet name="page29_table1" sheetId="19" r:id="rId19"/>
+    <sheet name="page29_table2" sheetId="20" r:id="rId20"/>
+    <sheet name="page28_table0" sheetId="21" r:id="rId21"/>
+    <sheet name="page28_table1" sheetId="22" r:id="rId22"/>
+    <sheet name="page27_table0" sheetId="23" r:id="rId23"/>
+    <sheet name="page27_table1" sheetId="24" r:id="rId24"/>
+    <sheet name="page26_table0" sheetId="25" r:id="rId25"/>
+    <sheet name="page26_table1" sheetId="26" r:id="rId26"/>
+    <sheet name="page25_table0" sheetId="27" r:id="rId27"/>
+    <sheet name="page25_table1" sheetId="28" r:id="rId28"/>
+    <sheet name="page23_table0" sheetId="29" r:id="rId29"/>
+    <sheet name="page22_table0" sheetId="30" r:id="rId30"/>
+    <sheet name="page18_table0" sheetId="31" r:id="rId31"/>
+    <sheet name="page16_table0" sheetId="32" r:id="rId32"/>
+    <sheet name="page15_table0" sheetId="33" r:id="rId33"/>
+    <sheet name="page12_table0" sheetId="34" r:id="rId34"/>
+    <sheet name="page11_table0" sheetId="35" r:id="rId35"/>
+    <sheet name="page8_table0" sheetId="36" r:id="rId36"/>
+    <sheet name="page7_table0" sheetId="37" r:id="rId37"/>
+    <sheet name="page6_table0" sheetId="38" r:id="rId38"/>
+    <sheet name="page5_table0" sheetId="39" r:id="rId39"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="938">
+  <si>
+    <t>In the opinion of the directors:</t>
+  </si>
+  <si>
+    <t>(a)</t>
+  </si>
+  <si>
+    <t>(b)</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>accordance with the Corporations Act 2001, including:</t>
+  </si>
+  <si>
+    <t>(i) giving a true</t>
+  </si>
+  <si>
+    <t>performance for the year ended on that date; and</t>
+  </si>
+  <si>
+    <t>(il) complying with Australian Accounting Standards - Reduced Corporations Regulations 2001;</t>
+  </si>
+  <si>
+    <t>there are reasonable grounds to believe that the Company and member of the extended closed group</t>
+  </si>
+  <si>
+    <t>identified in Note</t>
+  </si>
+  <si>
+    <t>become, subject by virtue of the</t>
+  </si>
+  <si>
+    <t>and notes of the Group for the financial year ended 31 December 2021 are in</t>
+  </si>
+  <si>
+    <t>and fair view of the Group's</t>
+  </si>
+  <si>
+    <t>21.4 will be able to meet any</t>
+  </si>
+  <si>
+    <t>deed of cross guarantee described in Note 21.4.</t>
+  </si>
+  <si>
+    <t>financial position as at 31</t>
+  </si>
+  <si>
+    <t>obligations or</t>
+  </si>
+  <si>
+    <t>Disclosure</t>
+  </si>
+  <si>
+    <t>liabilities to</t>
+  </si>
+  <si>
+    <t>December 2021</t>
+  </si>
+  <si>
+    <t>Requirements and the</t>
+  </si>
+  <si>
+    <t>which they are,</t>
+  </si>
+  <si>
+    <t>and its</t>
+  </si>
+  <si>
+    <t>or may</t>
+  </si>
+  <si>
+    <t>T. Okamoto</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>13 May 2022</t>
+  </si>
+  <si>
+    <t>21. Related party disclosures (continued)</t>
+  </si>
+  <si>
+    <t>21.4 Deed of Cross Guarantee (continued)</t>
+  </si>
+  <si>
+    <t>Liabilities and equity</t>
+  </si>
+  <si>
+    <t>Current liabilities</t>
+  </si>
+  <si>
+    <t>Trade and other payables</t>
+  </si>
+  <si>
+    <t>Provisions</t>
+  </si>
+  <si>
+    <t>Employee benefit liabilities</t>
+  </si>
+  <si>
+    <t>Interest-bearing loans and borrowings</t>
+  </si>
+  <si>
+    <t>Contract liabilities</t>
+  </si>
+  <si>
+    <t>Total current liabilities</t>
+  </si>
+  <si>
+    <t>Non-current liabilities Employee benefit liabilities</t>
+  </si>
+  <si>
+    <t>Interest-bearing liabilities</t>
+  </si>
+  <si>
+    <t>Total non-current liabilities</t>
+  </si>
+  <si>
+    <t>Total liabilities</t>
+  </si>
+  <si>
+    <t>Net assets</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Contributed equity</t>
+  </si>
+  <si>
+    <t>Retained profits</t>
+  </si>
+  <si>
+    <t>Total equity</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>$000</t>
+  </si>
+  <si>
+    <t>74359</t>
+  </si>
+  <si>
+    <t>2061</t>
+  </si>
+  <si>
+    <t>4125</t>
+  </si>
+  <si>
+    <t>3784</t>
+  </si>
+  <si>
+    <t>84329</t>
+  </si>
+  <si>
+    <t>2663</t>
+  </si>
+  <si>
+    <t>125801</t>
+  </si>
+  <si>
+    <t>128464</t>
+  </si>
+  <si>
+    <t>212793</t>
+  </si>
+  <si>
+    <t>118139</t>
+  </si>
+  <si>
+    <t>12540</t>
+  </si>
+  <si>
+    <t>105599</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>62436</t>
+  </si>
+  <si>
+    <t>1211</t>
+  </si>
+  <si>
+    <t>4154</t>
+  </si>
+  <si>
+    <t>63871</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>131680</t>
+  </si>
+  <si>
+    <t>2594</t>
+  </si>
+  <si>
+    <t>64739</t>
+  </si>
+  <si>
+    <t>67333</t>
+  </si>
+  <si>
+    <t>199013</t>
+  </si>
+  <si>
+    <t>107681</t>
+  </si>
+  <si>
+    <t>95141</t>
+  </si>
+  <si>
+    <t>Total compensation</t>
+  </si>
+  <si>
+    <t>Consolidated statement of profit or loss and other comprehensive income</t>
+  </si>
+  <si>
+    <t>Profit from ordinary activities before tax expense</t>
+  </si>
+  <si>
+    <t>Income tax expense</t>
+  </si>
+  <si>
+    <t>Profit after tax expense</t>
+  </si>
+  <si>
+    <t>Total comprehensive income</t>
+  </si>
+  <si>
+    <t>Retained profits at the beginning of the year</t>
+  </si>
+  <si>
+    <t>Dividends paid during the year</t>
+  </si>
+  <si>
+    <t>Retained profits at the end of the year</t>
+  </si>
+  <si>
+    <t>(ii) Consolidated statement of financial position</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Cash and short-term deposits</t>
+  </si>
+  <si>
+    <t>Trade and other receivables</t>
+  </si>
+  <si>
+    <t>Loans receivable</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Income tax receivable</t>
+  </si>
+  <si>
+    <t>Prepayments</t>
+  </si>
+  <si>
+    <t>Other assets</t>
+  </si>
+  <si>
+    <t>Total current assets</t>
+  </si>
+  <si>
+    <t>Non-current assets</t>
+  </si>
+  <si>
+    <t>Property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Intangibles</t>
+  </si>
+  <si>
+    <t>Right-of-use assets</t>
+  </si>
+  <si>
+    <t>Deferred tax assets</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>Total non-current assets</t>
+  </si>
+  <si>
+    <t>Total assets</t>
+  </si>
+  <si>
+    <t>28883</t>
+  </si>
+  <si>
+    <t>(5,522)</t>
+  </si>
+  <si>
+    <t>23361</t>
+  </si>
+  <si>
+    <t>(12,903)</t>
+  </si>
+  <si>
+    <t>31132</t>
+  </si>
+  <si>
+    <t>65934</t>
+  </si>
+  <si>
+    <t>69198</t>
+  </si>
+  <si>
+    <t>3514</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>1324</t>
+  </si>
+  <si>
+    <t>171136</t>
+  </si>
+  <si>
+    <t>21084</t>
+  </si>
+  <si>
+    <t>695</t>
+  </si>
+  <si>
+    <t>9418</t>
+  </si>
+  <si>
+    <t>5144</t>
+  </si>
+  <si>
+    <t>3455</t>
+  </si>
+  <si>
+    <t>120000</t>
+  </si>
+  <si>
+    <t>159796</t>
+  </si>
+  <si>
+    <t>330932</t>
+  </si>
+  <si>
+    <t>25163</t>
+  </si>
+  <si>
+    <t>(5,980)</t>
+  </si>
+  <si>
+    <t>19183</t>
+  </si>
+  <si>
+    <t>80539</t>
+  </si>
+  <si>
+    <t>(4,581)</t>
+  </si>
+  <si>
+    <t>5764</t>
+  </si>
+  <si>
+    <t>58575</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>81103</t>
+  </si>
+  <si>
+    <t>950</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>1233</t>
+  </si>
+  <si>
+    <t>207675</t>
+  </si>
+  <si>
+    <t>20506</t>
+  </si>
+  <si>
+    <t>1468</t>
+  </si>
+  <si>
+    <t>8393</t>
+  </si>
+  <si>
+    <t>5197</t>
+  </si>
+  <si>
+    <t>99019</t>
+  </si>
+  <si>
+    <t>306694</t>
+  </si>
+  <si>
+    <t>Ultimate controlling entity</t>
+  </si>
+  <si>
+    <t>Yamaha Motor Co. Ltd.</t>
+  </si>
+  <si>
+    <t>Other related parties</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>332468517</t>
+  </si>
+  <si>
+    <t>208158267</t>
+  </si>
+  <si>
+    <t>17333971</t>
+  </si>
+  <si>
+    <t>16674210</t>
+  </si>
+  <si>
+    <t>349802488</t>
+  </si>
+  <si>
+    <t>224832477</t>
+  </si>
+  <si>
+    <t>Amounts owed by</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>41978</t>
+  </si>
+  <si>
+    <t>67781</t>
+  </si>
+  <si>
+    <t>136858</t>
+  </si>
+  <si>
+    <t>9752</t>
+  </si>
+  <si>
+    <t>178836</t>
+  </si>
+  <si>
+    <t>77533</t>
+  </si>
+  <si>
+    <t>Amounts owed to</t>
+  </si>
+  <si>
+    <t>59550329</t>
+  </si>
+  <si>
+    <t>45764036</t>
+  </si>
+  <si>
+    <t>1394176</t>
+  </si>
+  <si>
+    <t>3085798</t>
+  </si>
+  <si>
+    <t>60944505</t>
+  </si>
+  <si>
+    <t>48849834</t>
+  </si>
+  <si>
+    <t>Derivative financial instruments</t>
+  </si>
+  <si>
+    <t>Interest rate swaps</t>
+  </si>
+  <si>
+    <t>Date of valuation</t>
+  </si>
+  <si>
+    <t>31 December 2021</t>
+  </si>
+  <si>
+    <t>31 December 2020</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>498</t>
+  </si>
+  <si>
+    <t>(4,120)</t>
+  </si>
+  <si>
+    <t>21.2 Information about subsidiaries</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Ficeda Pty Ltd</t>
+  </si>
+  <si>
+    <t>Yamaha Motor Finance Australia Pty. Ltd.</t>
+  </si>
+  <si>
+    <t>Australian Motorcycle and Marine Finance Pty. Ltd.</t>
+  </si>
+  <si>
+    <t>Yamaha Motor Insurance Australia Pty. Ltd.</t>
+  </si>
+  <si>
+    <t>Yamaha Motor New Zealand Limited</t>
+  </si>
+  <si>
+    <t>Yamaha Motor Finance New Zealand Limited</t>
+  </si>
+  <si>
+    <t>Yamaha Motor Insurance New Zealand Limited</t>
+  </si>
+  <si>
+    <t>Principal Activities</t>
+  </si>
+  <si>
+    <t>Distribution of motorcycle, marine and other accessories</t>
+  </si>
+  <si>
+    <t>Financing</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Distribution of motorcycle, terrain vehicles, marine engines, water vehicles, power products, golf cars and associated</t>
+  </si>
+  <si>
+    <t>accessories</t>
+  </si>
+  <si>
+    <t>Information relating to Yamaha Motor Australia Pty. Ltd.:</t>
+  </si>
+  <si>
+    <t>Current assets</t>
+  </si>
+  <si>
+    <t>Non-current liabilities</t>
+  </si>
+  <si>
+    <t>Retained earnings</t>
+  </si>
+  <si>
+    <t>Total shareholders' equity</t>
+  </si>
+  <si>
+    <t>Profit of the Parent entity</t>
+  </si>
+  <si>
+    <t>170572</t>
+  </si>
+  <si>
+    <t>163124</t>
+  </si>
+  <si>
+    <t>333696</t>
+  </si>
+  <si>
+    <t>83291</t>
+  </si>
+  <si>
+    <t>128351</t>
+  </si>
+  <si>
+    <t>211642</t>
+  </si>
+  <si>
+    <t>122054</t>
+  </si>
+  <si>
+    <t>109514</t>
+  </si>
+  <si>
+    <t>23758</t>
+  </si>
+  <si>
+    <t>207472</t>
+  </si>
+  <si>
+    <t>102043</t>
+  </si>
+  <si>
+    <t>309515</t>
+  </si>
+  <si>
+    <t>131060</t>
+  </si>
+  <si>
+    <t>67256</t>
+  </si>
+  <si>
+    <t>198316</t>
+  </si>
+  <si>
+    <t>111199</t>
+  </si>
+  <si>
+    <t>98659</t>
+  </si>
+  <si>
+    <t>21821</t>
+  </si>
+  <si>
+    <t>Minimum lease payments receivable</t>
+  </si>
+  <si>
+    <t>- Not later than one year</t>
+  </si>
+  <si>
+    <t>I Later than one year and not later than five years</t>
+  </si>
+  <si>
+    <t>Aggregate lease payments contracted for at the end of the reporting year but</t>
+  </si>
+  <si>
+    <t>not provided for</t>
+  </si>
+  <si>
+    <t>1447</t>
+  </si>
+  <si>
+    <t>1436</t>
+  </si>
+  <si>
+    <t>2883</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2033</t>
+  </si>
+  <si>
+    <t>4336</t>
+  </si>
+  <si>
+    <t>As at1 January 2020</t>
+  </si>
+  <si>
+    <t>Additions</t>
+  </si>
+  <si>
+    <t>Depreciation expense</t>
+  </si>
+  <si>
+    <t>As at31 December 2020</t>
+  </si>
+  <si>
+    <t>As at 31 December 2021</t>
+  </si>
+  <si>
+    <t>Warehouse and office premises</t>
+  </si>
+  <si>
+    <t>12946</t>
+  </si>
+  <si>
+    <t>8639</t>
+  </si>
+  <si>
+    <t>(4,750)</t>
+  </si>
+  <si>
+    <t>16835</t>
+  </si>
+  <si>
+    <t>6289</t>
+  </si>
+  <si>
+    <t>(4,881)</t>
+  </si>
+  <si>
+    <t>18243</t>
+  </si>
+  <si>
+    <t>As at 1 January</t>
+  </si>
+  <si>
+    <t>Accretion of interest</t>
+  </si>
+  <si>
+    <t>Payments</t>
+  </si>
+  <si>
+    <t>As at 31 December</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Non-current</t>
+  </si>
+  <si>
+    <t>Depreciation expense of right-of-use assets</t>
+  </si>
+  <si>
+    <t>Interest expense on lease liabilities</t>
+  </si>
+  <si>
+    <t>Expense relating to short-term leases</t>
+  </si>
+  <si>
+    <t>Total amount recognised in profit or loss</t>
+  </si>
+  <si>
+    <t>12,540,000 ordinary shares fully issued and paid (2020:12,540,000)</t>
+  </si>
+  <si>
+    <t>17048</t>
+  </si>
+  <si>
+    <t>6357</t>
+  </si>
+  <si>
+    <t>642</t>
+  </si>
+  <si>
+    <t>(5,266)</t>
+  </si>
+  <si>
+    <t>18781</t>
+  </si>
+  <si>
+    <t>4308</t>
+  </si>
+  <si>
+    <t>14473</t>
+  </si>
+  <si>
+    <t>4881</t>
+  </si>
+  <si>
+    <t>1305</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>At reporting date, the following other financing facilities had been negotiated</t>
+  </si>
+  <si>
+    <t>Total facilities:</t>
+  </si>
+  <si>
+    <t>Bank loans/commercial bills</t>
+  </si>
+  <si>
+    <t>Facilities used at reporting date</t>
+  </si>
+  <si>
+    <t>Facilities unused at reporting date</t>
+  </si>
+  <si>
+    <t>and were</t>
+  </si>
+  <si>
+    <t>available:</t>
+  </si>
+  <si>
+    <t>385000</t>
+  </si>
+  <si>
+    <t>265000</t>
+  </si>
+  <si>
+    <t>384065</t>
+  </si>
+  <si>
+    <t>264065</t>
+  </si>
+  <si>
+    <t>Employee benefits</t>
+  </si>
+  <si>
+    <t>15. Interest-bearing loans and borrowings</t>
+  </si>
+  <si>
+    <t>Securitised finance debt</t>
+  </si>
+  <si>
+    <t>Bank loan*</t>
+  </si>
+  <si>
+    <t>Lease liabilities (Note 16)</t>
+  </si>
+  <si>
+    <t>Total Interest-bearing loans</t>
+  </si>
+  <si>
+    <t>6734</t>
+  </si>
+  <si>
+    <t>3324</t>
+  </si>
+  <si>
+    <t>50211</t>
+  </si>
+  <si>
+    <t>54519</t>
+  </si>
+  <si>
+    <t>99790</t>
+  </si>
+  <si>
+    <t>234263</t>
+  </si>
+  <si>
+    <t>288782</t>
+  </si>
+  <si>
+    <t>6757</t>
+  </si>
+  <si>
+    <t>3178</t>
+  </si>
+  <si>
+    <t>61414</t>
+  </si>
+  <si>
+    <t>4223</t>
+  </si>
+  <si>
+    <t>125637</t>
+  </si>
+  <si>
+    <t>134474</t>
+  </si>
+  <si>
+    <t>12825</t>
+  </si>
+  <si>
+    <t>207299</t>
+  </si>
+  <si>
+    <t>332936</t>
+  </si>
+  <si>
+    <t>13. Provisions</t>
+  </si>
+  <si>
+    <t>Warranty provision</t>
+  </si>
+  <si>
+    <t>At 1 January 2021</t>
+  </si>
+  <si>
+    <t>Arising during the year</t>
+  </si>
+  <si>
+    <t>Utilised</t>
+  </si>
+  <si>
+    <t>At 31 December 2021</t>
+  </si>
+  <si>
+    <t>2223</t>
+  </si>
+  <si>
+    <t>1772</t>
+  </si>
+  <si>
+    <t>1360</t>
+  </si>
+  <si>
+    <t>(909)</t>
+  </si>
+  <si>
+    <t>11. Intangible assets</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Disposal</t>
+  </si>
+  <si>
+    <t>Foreign exchange translation</t>
+  </si>
+  <si>
+    <t>Amortisation</t>
+  </si>
+  <si>
+    <t>Net book value</t>
+  </si>
+  <si>
+    <t>At 31 December 2020</t>
+  </si>
+  <si>
+    <t>12. Trade and other payables</t>
+  </si>
+  <si>
+    <t>Trade creditors</t>
+  </si>
+  <si>
+    <t>Other creditors and accruals</t>
+  </si>
+  <si>
+    <t>Related party payables:</t>
+  </si>
+  <si>
+    <t>ultimate parent entity (Note 21.3)</t>
+  </si>
+  <si>
+    <t>other related parties (Note 21.3)</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>1063</t>
+  </si>
+  <si>
+    <t>Computer software</t>
+  </si>
+  <si>
+    <t>8231</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>(79)</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8497</t>
+  </si>
+  <si>
+    <t>5868</t>
+  </si>
+  <si>
+    <t>1345</t>
+  </si>
+  <si>
+    <t>(9)</t>
+  </si>
+  <si>
+    <t>7125</t>
+  </si>
+  <si>
+    <t>1372</t>
+  </si>
+  <si>
+    <t>2363</t>
+  </si>
+  <si>
+    <t>Customer contracts</t>
+  </si>
+  <si>
+    <t>622</t>
+  </si>
+  <si>
+    <t>593</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>3984</t>
+  </si>
+  <si>
+    <t>20726</t>
+  </si>
+  <si>
+    <t>24710</t>
+  </si>
+  <si>
+    <t>59550</t>
+  </si>
+  <si>
+    <t>1394</t>
+  </si>
+  <si>
+    <t>60944</t>
+  </si>
+  <si>
+    <t>85654</t>
+  </si>
+  <si>
+    <t>9916</t>
+  </si>
+  <si>
+    <t>10182</t>
+  </si>
+  <si>
+    <t>6461</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>7747</t>
+  </si>
+  <si>
+    <t>2435</t>
+  </si>
+  <si>
+    <t>3276</t>
+  </si>
+  <si>
+    <t>21080</t>
+  </si>
+  <si>
+    <t>24356</t>
+  </si>
+  <si>
+    <t>45764</t>
+  </si>
+  <si>
+    <t>3086</t>
+  </si>
+  <si>
+    <t>48850</t>
+  </si>
+  <si>
+    <t>73206</t>
+  </si>
+  <si>
+    <t>10. Property, plant and equipment</t>
+  </si>
+  <si>
+    <t>At1January 2021</t>
+  </si>
+  <si>
+    <t>Disposals</t>
+  </si>
+  <si>
+    <t>Foreign exchange translation*</t>
+  </si>
+  <si>
+    <t>Accumulated depreciation</t>
+  </si>
+  <si>
+    <t>At 1January 2021</t>
+  </si>
+  <si>
+    <t>Depreciation charge for the year</t>
+  </si>
+  <si>
+    <t>Freehold land</t>
+  </si>
+  <si>
+    <t>2113</t>
+  </si>
+  <si>
+    <t>Buildings</t>
+  </si>
+  <si>
+    <t>16328</t>
+  </si>
+  <si>
+    <t>429</t>
+  </si>
+  <si>
+    <t>16757</t>
+  </si>
+  <si>
+    <t>6694</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>7102</t>
+  </si>
+  <si>
+    <t>9655</t>
+  </si>
+  <si>
+    <t>9634</t>
+  </si>
+  <si>
+    <t>Leasehold improvements</t>
+  </si>
+  <si>
+    <t>794</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>(287)</t>
+  </si>
+  <si>
+    <t>(7)</t>
+  </si>
+  <si>
+    <t>538</t>
+  </si>
+  <si>
+    <t>685</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>(282)</t>
+  </si>
+  <si>
+    <t>448</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Plant and equipment</t>
+  </si>
+  <si>
+    <t>21160</t>
+  </si>
+  <si>
+    <t>5020</t>
+  </si>
+  <si>
+    <t>(3,121)</t>
+  </si>
+  <si>
+    <t>(518)</t>
+  </si>
+  <si>
+    <t>22541</t>
+  </si>
+  <si>
+    <t>10116</t>
+  </si>
+  <si>
+    <t>(1,744)</t>
+  </si>
+  <si>
+    <t>(363)</t>
+  </si>
+  <si>
+    <t>10372</t>
+  </si>
+  <si>
+    <t>12169</t>
+  </si>
+  <si>
+    <t>11044</t>
+  </si>
+  <si>
+    <t>Golf carts and similar assets subject to operating leases</t>
+  </si>
+  <si>
+    <t>10550</t>
+  </si>
+  <si>
+    <t>848</t>
+  </si>
+  <si>
+    <t>(1,973)</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>9637</t>
+  </si>
+  <si>
+    <t>4567</t>
+  </si>
+  <si>
+    <t>1694</t>
+  </si>
+  <si>
+    <t>(1,702)</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>4770</t>
+  </si>
+  <si>
+    <t>4867</t>
+  </si>
+  <si>
+    <t>5983</t>
+  </si>
+  <si>
+    <t>50945</t>
+  </si>
+  <si>
+    <t>6335</t>
+  </si>
+  <si>
+    <t>(5,381)</t>
+  </si>
+  <si>
+    <t>(313)</t>
+  </si>
+  <si>
+    <t>51586</t>
+  </si>
+  <si>
+    <t>22062</t>
+  </si>
+  <si>
+    <t>4517</t>
+  </si>
+  <si>
+    <t>(3,728)</t>
+  </si>
+  <si>
+    <t>(159)</t>
+  </si>
+  <si>
+    <t>22692</t>
+  </si>
+  <si>
+    <t>28894</t>
+  </si>
+  <si>
+    <t>9. Other assets</t>
+  </si>
+  <si>
+    <t>Sundry debtors</t>
+  </si>
+  <si>
+    <t>2448</t>
+  </si>
+  <si>
+    <t>2346</t>
+  </si>
+  <si>
+    <t>4794</t>
+  </si>
+  <si>
+    <t>1527</t>
+  </si>
+  <si>
+    <t>2697</t>
+  </si>
+  <si>
+    <t>4224</t>
+  </si>
+  <si>
+    <t>At 1 January 2020</t>
+  </si>
+  <si>
+    <t>Charge for the year</t>
+  </si>
+  <si>
+    <t>Unused amounts reversed</t>
+  </si>
+  <si>
+    <t>Individually impaired</t>
+  </si>
+  <si>
+    <t>10623</t>
+  </si>
+  <si>
+    <t>4180</t>
+  </si>
+  <si>
+    <t>(3,439)</t>
+  </si>
+  <si>
+    <t>11364</t>
+  </si>
+  <si>
+    <t>(1,464)</t>
+  </si>
+  <si>
+    <t>(6)</t>
+  </si>
+  <si>
+    <t>9894</t>
+  </si>
+  <si>
+    <t>Finished goods</t>
+  </si>
+  <si>
+    <t>At cost</t>
+  </si>
+  <si>
+    <t>Provision for diminution in value</t>
+  </si>
+  <si>
+    <t>Total inventories at the lower of cost and net realisable value</t>
+  </si>
+  <si>
+    <t>89762</t>
+  </si>
+  <si>
+    <t>(4,802)</t>
+  </si>
+  <si>
+    <t>84960</t>
+  </si>
+  <si>
+    <t>101866</t>
+  </si>
+  <si>
+    <t>(249)</t>
+  </si>
+  <si>
+    <t>101617</t>
+  </si>
+  <si>
+    <t>and other</t>
+  </si>
+  <si>
+    <t>Trade receivables Allowance for expected credit losses</t>
+  </si>
+  <si>
+    <t>Related party receivables:</t>
+  </si>
+  <si>
+    <t>Finance receivables</t>
+  </si>
+  <si>
+    <t>Allowance for expected credit losses</t>
+  </si>
+  <si>
+    <t>11,052 (28)</t>
+  </si>
+  <si>
+    <t>11024</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>153110</t>
+  </si>
+  <si>
+    <t>(3,017)</t>
+  </si>
+  <si>
+    <t>150093</t>
+  </si>
+  <si>
+    <t>161296</t>
+  </si>
+  <si>
+    <t>345072</t>
+  </si>
+  <si>
+    <t>(6,849)</t>
+  </si>
+  <si>
+    <t>338223</t>
+  </si>
+  <si>
+    <t>11,331 (296)</t>
+  </si>
+  <si>
+    <t>11035</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>160,376 (3,262)</t>
+  </si>
+  <si>
+    <t>157114</t>
+  </si>
+  <si>
+    <t>168227</t>
+  </si>
+  <si>
+    <t>363784</t>
+  </si>
+  <si>
+    <t>(7,806)</t>
+  </si>
+  <si>
+    <t>355978</t>
+  </si>
+  <si>
+    <t>6. Cash and short-term deposits</t>
+  </si>
+  <si>
+    <t>Cash at bank and on hand</t>
+  </si>
+  <si>
+    <t>Short-term deposits</t>
+  </si>
+  <si>
+    <t>55804</t>
+  </si>
+  <si>
+    <t>34386</t>
+  </si>
+  <si>
+    <t>90190</t>
+  </si>
+  <si>
+    <t>14850</t>
+  </si>
+  <si>
+    <t>34888</t>
+  </si>
+  <si>
+    <t>49738</t>
+  </si>
+  <si>
+    <t>Accounting profit before income tax</t>
+  </si>
+  <si>
+    <t>At the statutory income tax rate of 30% (2020: 30%)</t>
+  </si>
+  <si>
+    <t>Adjustments in respect of current income tax of previous years</t>
+  </si>
+  <si>
+    <t>Expenditure not allowable for income tax purpose</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Income tax expense reported in the consolidated statement of profit or loss</t>
+  </si>
+  <si>
+    <t>Effective income tax rate</t>
+  </si>
+  <si>
+    <t>63330</t>
+  </si>
+  <si>
+    <t>18999</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>(1,708)</t>
+  </si>
+  <si>
+    <t>(203)</t>
+  </si>
+  <si>
+    <t>17357</t>
+  </si>
+  <si>
+    <t>27%</t>
+  </si>
+  <si>
+    <t>43450</t>
+  </si>
+  <si>
+    <t>13035</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>13541</t>
+  </si>
+  <si>
+    <t>31%</t>
+  </si>
+  <si>
+    <t>Consolidated statement of Consolidated statement of financial position profit or loss</t>
+  </si>
+  <si>
+    <t>Employee entitlements</t>
+  </si>
+  <si>
+    <t>Provisions/reserves/accruals</t>
+  </si>
+  <si>
+    <t>DTL in relation to controlled entity</t>
+  </si>
+  <si>
+    <t>Deferred tax benefit</t>
+  </si>
+  <si>
+    <t>Net deferred tax assets</t>
+  </si>
+  <si>
+    <t>Reflected in the consolidated statement of</t>
+  </si>
+  <si>
+    <t>financial position as follow:</t>
+  </si>
+  <si>
+    <t>Deferred tax liabilities</t>
+  </si>
+  <si>
+    <t>Deferred tax assets, net</t>
+  </si>
+  <si>
+    <t>2339</t>
+  </si>
+  <si>
+    <t>6494</t>
+  </si>
+  <si>
+    <t>(5,103)</t>
+  </si>
+  <si>
+    <t>3010</t>
+  </si>
+  <si>
+    <t>6740</t>
+  </si>
+  <si>
+    <t>12566</t>
+  </si>
+  <si>
+    <t>(5,826)</t>
+  </si>
+  <si>
+    <t>2054</t>
+  </si>
+  <si>
+    <t>7004</t>
+  </si>
+  <si>
+    <t>(5,145)</t>
+  </si>
+  <si>
+    <t>2788</t>
+  </si>
+  <si>
+    <t>6701</t>
+  </si>
+  <si>
+    <t>11846</t>
+  </si>
+  <si>
+    <t>(285)</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>(42)</t>
+  </si>
+  <si>
+    <t>(222)</t>
+  </si>
+  <si>
+    <t>(39)</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>(1,294)</t>
+  </si>
+  <si>
+    <t>(567)</t>
+  </si>
+  <si>
+    <t>435</t>
+  </si>
+  <si>
+    <t>(1,259)</t>
+  </si>
+  <si>
+    <t>Consolidated statement of profit or loss</t>
+  </si>
+  <si>
+    <t>Current income tax charge</t>
+  </si>
+  <si>
+    <t>Deferred income tax</t>
+  </si>
+  <si>
+    <t>Relating to the origination and reversal of timing differences</t>
+  </si>
+  <si>
+    <t>Adjustments in respect of deferred income tax of previous years</t>
+  </si>
+  <si>
+    <t>Income tax expense reported in the consolidated statement of profit or</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>17127</t>
+  </si>
+  <si>
+    <t>471</t>
+  </si>
+  <si>
+    <t>(510)</t>
+  </si>
+  <si>
+    <t>14489</t>
+  </si>
+  <si>
+    <t>(2,389)</t>
+  </si>
+  <si>
+    <t>1130</t>
+  </si>
+  <si>
+    <t>Revenue and expenses (continued)</t>
+  </si>
+  <si>
+    <t>4.6 Other operating expenses</t>
+  </si>
+  <si>
+    <t>Expected credit losses trade and other receivables</t>
+  </si>
+  <si>
+    <t>Net loss on disposal of property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Loss on foreign exchange</t>
+  </si>
+  <si>
+    <t>4.7 Other finance costs</t>
+  </si>
+  <si>
+    <t>Other persons/corporations</t>
+  </si>
+  <si>
+    <t>Interest on lease liabilities (Note 16)</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>1885</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>2380</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>566</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>4.1 Finance revenue</t>
+  </si>
+  <si>
+    <t>Interest revenue</t>
+  </si>
+  <si>
+    <t>Interestincome from wholesale lending</t>
+  </si>
+  <si>
+    <t>Interest income from retail lending</t>
+  </si>
+  <si>
+    <t>Total interest revenue</t>
+  </si>
+  <si>
+    <t>Fee revenue</t>
+  </si>
+  <si>
+    <t>Fee income</t>
+  </si>
+  <si>
+    <t>Total finance revenue excluding other interest income</t>
+  </si>
+  <si>
+    <t>4.2 Finance costs</t>
+  </si>
+  <si>
+    <t>Cost of finance revenue</t>
+  </si>
+  <si>
+    <t>4.3 Other income</t>
+  </si>
+  <si>
+    <t>Recovery of expected credit losses trade and other receivables</t>
+  </si>
+  <si>
+    <t>Net gain on disposal of property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Other interest income</t>
+  </si>
+  <si>
+    <t>Other income</t>
+  </si>
+  <si>
+    <t>4.4 Employee benefits expense</t>
+  </si>
+  <si>
+    <t>Wages and salaries</t>
+  </si>
+  <si>
+    <t>Superannuation costs</t>
+  </si>
+  <si>
+    <t>1826</t>
+  </si>
+  <si>
+    <t>41794</t>
+  </si>
+  <si>
+    <t>43620</t>
+  </si>
+  <si>
+    <t>9397</t>
+  </si>
+  <si>
+    <t>53017</t>
+  </si>
+  <si>
+    <t>14323</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>698</t>
+  </si>
+  <si>
+    <t>906</t>
+  </si>
+  <si>
+    <t>42373</t>
+  </si>
+  <si>
+    <t>3292</t>
+  </si>
+  <si>
+    <t>45665</t>
+  </si>
+  <si>
+    <t>2157</t>
+  </si>
+  <si>
+    <t>41239</t>
+  </si>
+  <si>
+    <t>43396</t>
+  </si>
+  <si>
+    <t>10522</t>
+  </si>
+  <si>
+    <t>53918</t>
+  </si>
+  <si>
+    <t>10096</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>389</t>
+  </si>
+  <si>
+    <t>40102</t>
+  </si>
+  <si>
+    <t>43616</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Depreciation of right-of-use assets</t>
+  </si>
+  <si>
+    <t>10743</t>
+  </si>
+  <si>
+    <t>5230</t>
+  </si>
+  <si>
+    <t>4750</t>
+  </si>
+  <si>
+    <t>1544</t>
+  </si>
+  <si>
+    <t>11524</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>The</t>
+  </si>
+  <si>
+    <t>sell</t>
+  </si>
+  <si>
+    <t>In the principal market for the asset or liability, or</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>liability,</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>inputs.</t>
+  </si>
+  <si>
+    <t>directly</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>explained above.</t>
+  </si>
+  <si>
+    <t>year.</t>
+  </si>
+  <si>
+    <t>highest</t>
+  </si>
+  <si>
+    <t>nature,</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>settled,</t>
+  </si>
+  <si>
+    <t>recognised</t>
+  </si>
+  <si>
+    <t>taxation authority.</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>consolidation.</t>
+  </si>
+  <si>
+    <t>assets)</t>
+  </si>
+  <si>
+    <t>(receivable)</t>
+  </si>
+  <si>
+    <t>the asset can be utilised.</t>
+  </si>
+  <si>
+    <t>recoverability</t>
+  </si>
+  <si>
+    <t>measured</t>
+  </si>
+  <si>
+    <t>liability</t>
+  </si>
+  <si>
+    <t>relating</t>
+  </si>
+  <si>
+    <t>payable</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>assets</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>Pty.</t>
+  </si>
+  <si>
+    <t>Useful lives</t>
+  </si>
+  <si>
+    <t>Amortisation method used</t>
+  </si>
+  <si>
+    <t>Internally generated or acquired</t>
+  </si>
+  <si>
+    <t>Finite (4 years)</t>
+  </si>
+  <si>
+    <t>Straight-line basis over the estimated useful life</t>
+  </si>
+  <si>
+    <t>Acquired</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>N/a</t>
+  </si>
+  <si>
+    <t>40 years</t>
+  </si>
+  <si>
+    <t>Shorter of the lease term or useful life</t>
+  </si>
+  <si>
+    <t>3 to 10 years</t>
+  </si>
+  <si>
+    <t>2 to 5 years</t>
+  </si>
+  <si>
+    <t>f) Financial instruments (continued)</t>
+  </si>
+  <si>
+    <t>(ii)</t>
+  </si>
+  <si>
+    <t>Subsequent measurement (continued)</t>
+  </si>
+  <si>
+    <t>Financial liabilities at fair value through profit or loss (continued)</t>
+  </si>
+  <si>
+    <t>Financial liabilities are classified as held</t>
+  </si>
+  <si>
+    <t>near term. This category also includes</t>
+  </si>
+  <si>
+    <t>designated as hedging instruments in</t>
+  </si>
+  <si>
+    <t>Separated embedded derivatives are also classified as held for trading unless they are hedging instruments.</t>
+  </si>
+  <si>
+    <t>Gains or losses on liabilities held for trading are recognised in the consolidated statement other comprehensive income.</t>
+  </si>
+  <si>
+    <t>Financial liabilities designated upon initial recognition at fair value through profit or loss</t>
+  </si>
+  <si>
+    <t>initial date of recognition, and only if the</t>
+  </si>
+  <si>
+    <t>financial liability as at fair value through profit or loss.</t>
+  </si>
+  <si>
+    <t>Loans and borrowings</t>
+  </si>
+  <si>
+    <t>Trade and other payables are carried at</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>make future payments in respect of the purchase of these goods and services.</t>
+  </si>
+  <si>
+    <t>Such derivative financial instruments are initially recognised at fair value on the date</t>
+  </si>
+  <si>
+    <t>contract is entered into and are subsequently remeasured at fair value. Derivatives are carried as financial assets</t>
+  </si>
+  <si>
+    <t>when the fair value is positive and as financial liabilities when the fair value is negative.</t>
+  </si>
+  <si>
+    <t>Derecognition</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>When an existing financial liability is replaced by another from the same lender on substantially different terms, or</t>
+  </si>
+  <si>
+    <t>carrying amounts is recognised in the consolidated statement of profit or loss and other</t>
+  </si>
+  <si>
+    <t>g)</t>
+  </si>
+  <si>
+    <t>for trading if they are incurred for the purpose</t>
+  </si>
+  <si>
+    <t>derivative financial instruments entered into by</t>
+  </si>
+  <si>
+    <t>hedge relationships as defined by AASB 9</t>
+  </si>
+  <si>
+    <t>criteria in AASB 9 are satisfied. The Group has not designated any</t>
+  </si>
+  <si>
+    <t>amortised costs and represent liabilities for goods</t>
+  </si>
+  <si>
+    <t>of repurchasing in the</t>
+  </si>
+  <si>
+    <t>the Group that are not</t>
+  </si>
+  <si>
+    <t>Financial Instruments.</t>
+  </si>
+  <si>
+    <t>designated as effective</t>
+  </si>
+  <si>
+    <t>of profit or loss and</t>
+  </si>
+  <si>
+    <t>are designated at the</t>
+  </si>
+  <si>
+    <t>and services provided</t>
+  </si>
+  <si>
+    <t>Group uses derivative financial instruments, such as interest rate swaps, to hedge</t>
+  </si>
+  <si>
+    <t>on which a derivative</t>
+  </si>
+  <si>
+    <t>comprehensive income.</t>
+  </si>
+  <si>
+    <t>c)</t>
+  </si>
+  <si>
+    <t>(ili)</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>income</t>
+  </si>
+  <si>
+    <t>arising</t>
+  </si>
+  <si>
+    <t>ofOCI</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>amounts of assets and liabilities arising on the acquisition are treated as assets and liabilities of the foreign</t>
+  </si>
+  <si>
+    <t>operation and translated at the spot rate of exchange at the reporting date.</t>
+  </si>
+  <si>
+    <t>d)</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>short-term</t>
+  </si>
+  <si>
+    <t>e) Inventories</t>
+  </si>
+  <si>
+    <t>Inventories are stated at the lower of cost and net value and include the following:</t>
+  </si>
+  <si>
+    <t>invoiced freight on board (FOB) price plus freight and insurance;</t>
+  </si>
+  <si>
+    <t>local handling costs and accessories (where fitted); and</t>
+  </si>
+  <si>
+    <t>import duty calculated on the FOB cost.</t>
+  </si>
+  <si>
+    <t>Financial instruments</t>
+  </si>
+  <si>
+    <t>(i)</t>
+  </si>
+  <si>
+    <t>Initial recognition and</t>
+  </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t>through other comprehensive income (OCI), and fair value through profit or loss.</t>
+  </si>
+  <si>
+    <t>characteristics and the Group's business</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>through</t>
+  </si>
+  <si>
+    <t>under</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>functional currency of the</t>
+  </si>
+  <si>
+    <t>are translated at exchange rates</t>
+  </si>
+  <si>
+    <t>goodwill arising on the acquisition</t>
+  </si>
+  <si>
+    <t>assets are classified, at initial</t>
+  </si>
+  <si>
+    <t>classification of financial assets at</t>
+  </si>
+  <si>
+    <t>model for managing them. With the exception of trade</t>
+  </si>
+  <si>
+    <t>profit or loss, transaction costs.</t>
+  </si>
+  <si>
+    <t>on translation for consolidation are recognised in OCI. On disposal of a foreign operation,</t>
+  </si>
+  <si>
+    <t>of a foreign operation and any fair value adjustments</t>
+  </si>
+  <si>
+    <t>recognition, as subsequently measured at amortised</t>
+  </si>
+  <si>
+    <t>receivables that</t>
+  </si>
+  <si>
+    <t>initially a financial asset at its fair value plus, in the case of a financial asset</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>2. Significant accounting policies (continued)</t>
+  </si>
+  <si>
+    <t>2.3 Summary of significant accounting policies (continued)</t>
+  </si>
+  <si>
+    <t>b) Current versus non-current classification</t>
+  </si>
+  <si>
+    <t>The Group presents assets and liabilities in the consolidated currentinon-current classification. An asset is current when it is:</t>
+  </si>
+  <si>
+    <t>Expected to be realised or intended to be sold or consumed in the normal operating cycle</t>
+  </si>
+  <si>
+    <t>Held primarily for the purpose of trading</t>
+  </si>
+  <si>
+    <t>Expected to be realised within twelve months after the reporting period, or</t>
+  </si>
+  <si>
+    <t>Cash or cash equivalent unless restricted from being exchanged or used to settle a liability for at least twelve months after the reporting period</t>
+  </si>
+  <si>
+    <t>All other assets are classified as non-current.</t>
+  </si>
+  <si>
+    <t>A liability is current when it is:</t>
+  </si>
+  <si>
+    <t>Expected to be settled in the normal operating cycle</t>
+  </si>
+  <si>
+    <t>or Due to be settled within twelve months after the reporting period,</t>
+  </si>
+  <si>
+    <t>There is no unconditional right to defer the settlement of the liability for at least twelve months after the reporting period</t>
+  </si>
+  <si>
+    <t>The Group classifies all other liabilities as non-current.</t>
+  </si>
+  <si>
+    <t>Deferred tax assets and liabilities are classified as non-current assets and liabilities.</t>
+  </si>
+  <si>
+    <t>c) Foreign currencies</t>
+  </si>
+  <si>
+    <t>(i) Functional and presentation currency</t>
+  </si>
+  <si>
+    <t>The Group's consolidated financial statements are presented</t>
+  </si>
+  <si>
+    <t>functional currency. For each entity, the Group determines</t>
+  </si>
+  <si>
+    <t>financial statements of each entity are measured using that</t>
+  </si>
+  <si>
+    <t>method of consolidation and on disposal of a foreign operation,</t>
+  </si>
+  <si>
+    <t>reflects the amount that arises from using this method.</t>
+  </si>
+  <si>
+    <t>(ii) Transactions and balances</t>
+  </si>
+  <si>
+    <t>Transactions in foreign currencies are initially recorded by the Group's entities at their respective currency spot rates at the date the transaction first qualifies for recognition.</t>
+  </si>
+  <si>
+    <t>Monetary assets and liabilities denominated in foreign currencies are translated at the functional currency spot rates of exchange at the reporting date. Differences arising on settlement or translation of monetary items are recognised in profit or loss.</t>
+  </si>
+  <si>
+    <t>Non-monetary items that are measured in terms of historical cost in a foreign currency are translated using the exchange rates at the dates of the initial transactions. Non-monetary items measured at fair value in a foreign currency are translated using the exchange rates at the date when the fair value is determined. The gain or loss arising on translation of non-monetary items measured at fair value is treated in line with the recognition of the gain or loss on the change in fair value of the item (ie., translation differences on items whose fair value gain or loss is recognised in OCI or profit or loss are also recognised in OCI or profit or loss, respectively).</t>
+  </si>
+  <si>
+    <t>in Australian dollars, which is also the</t>
+  </si>
+  <si>
+    <t>the functional currency and items included in the</t>
+  </si>
+  <si>
+    <t>functional currency. The Group uses the direct</t>
+  </si>
+  <si>
+    <t>the gain or loss that is reclassified to profit or loss</t>
+  </si>
+  <si>
+    <t>parent's</t>
+  </si>
+  <si>
+    <t>functional</t>
+  </si>
+  <si>
+    <t>Operating activities</t>
+  </si>
+  <si>
+    <t>Receipts from dealers and customer loan repayments</t>
+  </si>
+  <si>
+    <t>Payments to suppliers and employees</t>
+  </si>
+  <si>
+    <t>Interest received</t>
+  </si>
+  <si>
+    <t>Interest paid on finance receivables funding</t>
+  </si>
+  <si>
+    <t>Income tax paid</t>
+  </si>
+  <si>
+    <t>Net receipts from finance receivables</t>
+  </si>
+  <si>
+    <t>Borrowing costs</t>
+  </si>
+  <si>
+    <t>Net cash flows from operating activities</t>
+  </si>
+  <si>
+    <t>Investing activities</t>
+  </si>
+  <si>
+    <t>Proceeds from sale of property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Purchase of property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Purchase of intangible assets</t>
+  </si>
+  <si>
+    <t>Net cash flows used in investing activities</t>
+  </si>
+  <si>
+    <t>Financing activities</t>
+  </si>
+  <si>
+    <t>Payment of principal portion of lease liabilities</t>
+  </si>
+  <si>
+    <t>Proceeds from borrowings</t>
+  </si>
+  <si>
+    <t>Repayment of borrowings</t>
+  </si>
+  <si>
+    <t>Dividends paid to equity holders of the Parent</t>
+  </si>
+  <si>
+    <t>Net cash flows used in financing activities</t>
+  </si>
+  <si>
+    <t>Net increase in cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents at 1 January</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents at 31 December</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>557678</t>
+  </si>
+  <si>
+    <t>(469,975)</t>
+  </si>
+  <si>
+    <t>(14,323)</t>
+  </si>
+  <si>
+    <t>(14,881)</t>
+  </si>
+  <si>
+    <t>50886</t>
+  </si>
+  <si>
+    <t>(642)</t>
+  </si>
+  <si>
+    <t>108874</t>
+  </si>
+  <si>
+    <t>1663</t>
+  </si>
+  <si>
+    <t>(6,335)</t>
+  </si>
+  <si>
+    <t>(336)</t>
+  </si>
+  <si>
+    <t>(5,008)</t>
+  </si>
+  <si>
+    <t>(4,624)</t>
+  </si>
+  <si>
+    <t>86000</t>
+  </si>
+  <si>
+    <t>(131,887)</t>
+  </si>
+  <si>
+    <t>(63,414)</t>
+  </si>
+  <si>
+    <t>40452</t>
+  </si>
+  <si>
+    <t>480669</t>
+  </si>
+  <si>
+    <t>(371,869)</t>
+  </si>
+  <si>
+    <t>(10,096)</t>
+  </si>
+  <si>
+    <t>(3,980)</t>
+  </si>
+  <si>
+    <t>42404</t>
+  </si>
+  <si>
+    <t>(566)</t>
+  </si>
+  <si>
+    <t>136618</t>
+  </si>
+  <si>
+    <t>(3,937)</t>
+  </si>
+  <si>
+    <t>(1,040)</t>
+  </si>
+  <si>
+    <t>(4,977)</t>
+  </si>
+  <si>
+    <t>(4,687)</t>
+  </si>
+  <si>
+    <t>273479</t>
+  </si>
+  <si>
+    <t>(367,000)</t>
+  </si>
+  <si>
+    <t>(102,789)</t>
+  </si>
+  <si>
+    <t>28852</t>
+  </si>
+  <si>
+    <t>20886</t>
+  </si>
+  <si>
+    <t>At1 January 2021</t>
+  </si>
+  <si>
+    <t>Profit for the year</t>
+  </si>
+  <si>
+    <t>Other comprehensive income</t>
+  </si>
+  <si>
+    <t>Total comprehensive income for the year</t>
+  </si>
+  <si>
+    <t>Dividends paid</t>
+  </si>
+  <si>
+    <t>At31 December 2021</t>
+  </si>
+  <si>
+    <t>At1 January 2020</t>
+  </si>
+  <si>
+    <t>Other comprehensive loss</t>
+  </si>
+  <si>
+    <t>Total comprehensive incomel(loss) for the year</t>
+  </si>
+  <si>
+    <t>Attributable to the equity holders of the Parent</t>
+  </si>
+  <si>
+    <t>Contributed equity (Note 17)</t>
+  </si>
+  <si>
+    <t>295483</t>
+  </si>
+  <si>
+    <t>45973</t>
+  </si>
+  <si>
+    <t>328553</t>
+  </si>
+  <si>
+    <t>270155</t>
+  </si>
+  <si>
+    <t>29909</t>
+  </si>
+  <si>
+    <t>Foreign currency translation reserve</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>2273</t>
+  </si>
+  <si>
+    <t>3585</t>
+  </si>
+  <si>
+    <t>(1,594)</t>
+  </si>
+  <si>
+    <t>310014</t>
+  </si>
+  <si>
+    <t>46255</t>
+  </si>
+  <si>
+    <t>343366</t>
+  </si>
+  <si>
+    <t>286280</t>
+  </si>
+  <si>
+    <t>28315</t>
+  </si>
+  <si>
+    <t>Intangible assets</t>
+  </si>
+  <si>
+    <t>Liabilities</t>
+  </si>
+  <si>
+    <t>Income tax payable</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>341240</t>
+  </si>
+  <si>
+    <t>528</t>
+  </si>
+  <si>
+    <t>395063</t>
+  </si>
+  <si>
+    <t>736303</t>
+  </si>
+  <si>
+    <t>6190</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>155350</t>
+  </si>
+  <si>
+    <t>237587</t>
+  </si>
+  <si>
+    <t>392937</t>
+  </si>
+  <si>
+    <t>323806</t>
+  </si>
+  <si>
+    <t>411852</t>
+  </si>
+  <si>
+    <t>735658</t>
+  </si>
+  <si>
+    <t>3675</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>211094</t>
+  </si>
+  <si>
+    <t>4073</t>
+  </si>
+  <si>
+    <t>214550</t>
+  </si>
+  <si>
+    <t>425644</t>
+  </si>
   <si>
     <t>Revenue from contracts with customers</t>
   </si>
@@ -22,9 +2733,6 @@
     <t>Finance revenue</t>
   </si>
   <si>
-    <t>Total revenue</t>
-  </si>
-  <si>
     <t>Cost of sales</t>
   </si>
   <si>
@@ -37,9 +2745,6 @@
     <t>Gross profit</t>
   </si>
   <si>
-    <t>Other income</t>
-  </si>
-  <si>
     <t>Employee benefits expense</t>
   </si>
   <si>
@@ -64,16 +2769,10 @@
     <t>Profit before income tax</t>
   </si>
   <si>
-    <t>Income tax expense</t>
-  </si>
-  <si>
-    <t>Profit for the year</t>
-  </si>
-  <si>
-    <t>in Other comprehensive income/(loss) Other comprehensive income /(loss) that may be reclassified to profit or loss subsequent periods (net of tax):</t>
-  </si>
-  <si>
-    <t>Notes</t>
+    <t>income tax expense</t>
+  </si>
+  <si>
+    <t>in Other comprehensive incomel(loss) Other comprehensive income /(loss) that may be reclassified to profit or loss subsequent periods (net oftax):</t>
   </si>
   <si>
     <t>4.1</t>
@@ -94,42 +2793,24 @@
     <t>4.7</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>in</t>
   </si>
   <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>$000</t>
-  </si>
-  <si>
     <t>481577</t>
   </si>
   <si>
-    <t>53017</t>
-  </si>
-  <si>
     <t>534594</t>
   </si>
   <si>
     <t>(367,584)</t>
   </si>
   <si>
-    <t>(14,323)</t>
-  </si>
-  <si>
     <t>(381,907)</t>
   </si>
   <si>
     <t>152687</t>
   </si>
   <si>
-    <t>906</t>
-  </si>
-  <si>
     <t>(45,665)</t>
   </si>
   <si>
@@ -148,45 +2829,24 @@
     <t>(231)</t>
   </si>
   <si>
-    <t>(642)</t>
-  </si>
-  <si>
-    <t>63330</t>
-  </si>
-  <si>
     <t>(17,357)</t>
   </si>
   <si>
-    <t>45973</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
     <t>420236</t>
   </si>
   <si>
-    <t>53918</t>
-  </si>
-  <si>
     <t>474154</t>
   </si>
   <si>
     <t>(327,231)</t>
   </si>
   <si>
-    <t>(10,096)</t>
-  </si>
-  <si>
     <t>(337,327)</t>
   </si>
   <si>
     <t>136827</t>
   </si>
   <si>
-    <t>389</t>
-  </si>
-  <si>
     <t>(43,616)</t>
   </si>
   <si>
@@ -205,16 +2865,7 @@
     <t>(2,380)</t>
   </si>
   <si>
-    <t>(566)</t>
-  </si>
-  <si>
-    <t>43450</t>
-  </si>
-  <si>
     <t>(13,541)</t>
-  </si>
-  <si>
-    <t>29909</t>
   </si>
 </sst>
 </file>
@@ -572,9 +3223,3206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>245</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>271</v>
+      </c>
+      <c r="B14" t="s">
+        <v>251</v>
+      </c>
+      <c r="C14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>276</v>
+      </c>
+      <c r="C15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>270</v>
+      </c>
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>269</v>
+      </c>
+      <c r="B18" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>271</v>
+      </c>
+      <c r="B19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C19" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C20" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>272</v>
+      </c>
+      <c r="B21" t="s">
+        <v>279</v>
+      </c>
+      <c r="C21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D6" t="s">
+        <v>327</v>
+      </c>
+      <c r="E6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>302</v>
+      </c>
+      <c r="C9" t="s">
+        <v>318</v>
+      </c>
+      <c r="E9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D10" t="s">
+        <v>327</v>
+      </c>
+      <c r="E10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D12" t="s">
+        <v>328</v>
+      </c>
+      <c r="E12" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C13" t="s">
+        <v>321</v>
+      </c>
+      <c r="E13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C14" t="s">
+        <v>317</v>
+      </c>
+      <c r="E14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C15" t="s">
+        <v>322</v>
+      </c>
+      <c r="D15" t="s">
+        <v>329</v>
+      </c>
+      <c r="E15" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>294</v>
+      </c>
+      <c r="C16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D16" t="s">
+        <v>327</v>
+      </c>
+      <c r="E16" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B18" t="s">
+        <v>313</v>
+      </c>
+      <c r="C18" t="s">
+        <v>324</v>
+      </c>
+      <c r="E18" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>305</v>
+      </c>
+      <c r="B19" t="s">
+        <v>313</v>
+      </c>
+      <c r="C19" t="s">
+        <v>325</v>
+      </c>
+      <c r="D19" t="s">
+        <v>329</v>
+      </c>
+      <c r="E19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>239</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>307</v>
+      </c>
+      <c r="D23" t="s">
+        <v>330</v>
+      </c>
+      <c r="E23" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>308</v>
+      </c>
+      <c r="D24" t="s">
+        <v>331</v>
+      </c>
+      <c r="E24" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" t="s">
+        <v>332</v>
+      </c>
+      <c r="E25" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D27" t="s">
+        <v>333</v>
+      </c>
+      <c r="E27" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>311</v>
+      </c>
+      <c r="D28" t="s">
+        <v>334</v>
+      </c>
+      <c r="E28" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="D29" t="s">
+        <v>335</v>
+      </c>
+      <c r="E29" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="D30" t="s">
+        <v>336</v>
+      </c>
+      <c r="E30" t="s">
+        <v>349</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F3" t="s">
+        <v>392</v>
+      </c>
+      <c r="G3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D6" t="s">
+        <v>369</v>
+      </c>
+      <c r="E6" t="s">
+        <v>381</v>
+      </c>
+      <c r="F6" t="s">
+        <v>393</v>
+      </c>
+      <c r="G6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7" t="s">
+        <v>370</v>
+      </c>
+      <c r="E7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E8" t="s">
+        <v>383</v>
+      </c>
+      <c r="F8" t="s">
+        <v>395</v>
+      </c>
+      <c r="G8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>353</v>
+      </c>
+      <c r="D9" t="s">
+        <v>372</v>
+      </c>
+      <c r="E9" t="s">
+        <v>384</v>
+      </c>
+      <c r="F9" t="s">
+        <v>396</v>
+      </c>
+      <c r="G9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C10" t="s">
+        <v>362</v>
+      </c>
+      <c r="D10" t="s">
+        <v>373</v>
+      </c>
+      <c r="E10" t="s">
+        <v>385</v>
+      </c>
+      <c r="F10" t="s">
+        <v>397</v>
+      </c>
+      <c r="G10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>355</v>
+      </c>
+      <c r="C12" t="s">
+        <v>363</v>
+      </c>
+      <c r="D12" t="s">
+        <v>374</v>
+      </c>
+      <c r="E12" t="s">
+        <v>386</v>
+      </c>
+      <c r="F12" t="s">
+        <v>398</v>
+      </c>
+      <c r="G12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>356</v>
+      </c>
+      <c r="C13" t="s">
+        <v>364</v>
+      </c>
+      <c r="D13" t="s">
+        <v>375</v>
+      </c>
+      <c r="E13" t="s">
+        <v>325</v>
+      </c>
+      <c r="F13" t="s">
+        <v>399</v>
+      </c>
+      <c r="G13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>352</v>
+      </c>
+      <c r="D14" t="s">
+        <v>376</v>
+      </c>
+      <c r="E14" t="s">
+        <v>387</v>
+      </c>
+      <c r="F14" t="s">
+        <v>400</v>
+      </c>
+      <c r="G14" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>353</v>
+      </c>
+      <c r="D15" t="s">
+        <v>372</v>
+      </c>
+      <c r="E15" t="s">
+        <v>388</v>
+      </c>
+      <c r="F15" t="s">
+        <v>401</v>
+      </c>
+      <c r="G15" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>294</v>
+      </c>
+      <c r="C16" t="s">
+        <v>365</v>
+      </c>
+      <c r="D16" t="s">
+        <v>377</v>
+      </c>
+      <c r="E16" t="s">
+        <v>389</v>
+      </c>
+      <c r="F16" t="s">
+        <v>402</v>
+      </c>
+      <c r="G16" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B18" t="s">
+        <v>358</v>
+      </c>
+      <c r="C18" t="s">
+        <v>366</v>
+      </c>
+      <c r="D18" t="s">
+        <v>378</v>
+      </c>
+      <c r="E18" t="s">
+        <v>390</v>
+      </c>
+      <c r="F18" t="s">
+        <v>403</v>
+      </c>
+      <c r="G18" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>305</v>
+      </c>
+      <c r="B19" t="s">
+        <v>358</v>
+      </c>
+      <c r="C19" t="s">
+        <v>367</v>
+      </c>
+      <c r="D19" t="s">
+        <v>379</v>
+      </c>
+      <c r="E19" t="s">
+        <v>391</v>
+      </c>
+      <c r="F19" t="s">
+        <v>404</v>
+      </c>
+      <c r="G19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>418</v>
+      </c>
+      <c r="C6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B7" t="s">
+        <v>419</v>
+      </c>
+      <c r="C7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>420</v>
+      </c>
+      <c r="C8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B9" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10" t="s">
+        <v>434</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B5" t="s">
+        <v>439</v>
+      </c>
+      <c r="C5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>437</v>
+      </c>
+      <c r="B6" t="s">
+        <v>440</v>
+      </c>
+      <c r="C6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>438</v>
+      </c>
+      <c r="B7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C6" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>451</v>
+      </c>
+      <c r="C7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B9" t="s">
+        <v>452</v>
+      </c>
+      <c r="C9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B10" t="s">
+        <v>453</v>
+      </c>
+      <c r="C10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>454</v>
+      </c>
+      <c r="C11" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>448</v>
+      </c>
+      <c r="B12" t="s">
+        <v>455</v>
+      </c>
+      <c r="C12" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C13" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>457</v>
+      </c>
+      <c r="C14" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>448</v>
+      </c>
+      <c r="B17" t="s">
+        <v>459</v>
+      </c>
+      <c r="C17" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>449</v>
+      </c>
+      <c r="B18" t="s">
+        <v>460</v>
+      </c>
+      <c r="C18" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" t="s">
+        <v>461</v>
+      </c>
+      <c r="C19" t="s">
+        <v>472</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C5" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>475</v>
+      </c>
+      <c r="B6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>478</v>
+      </c>
+      <c r="C7" t="s">
+        <v>481</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C5" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>484</v>
+      </c>
+      <c r="B6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C6" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>485</v>
+      </c>
+      <c r="B7" t="s">
+        <v>492</v>
+      </c>
+      <c r="C7" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>486</v>
+      </c>
+      <c r="B8" t="s">
+        <v>493</v>
+      </c>
+      <c r="C8" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>488</v>
+      </c>
+      <c r="B10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C10" t="s">
+        <v>502</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C5" t="s">
+        <v>520</v>
+      </c>
+      <c r="D5" t="s">
+        <v>526</v>
+      </c>
+      <c r="E5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>505</v>
+      </c>
+      <c r="B6" t="s">
+        <v>514</v>
+      </c>
+      <c r="C6" t="s">
+        <v>521</v>
+      </c>
+      <c r="D6" t="s">
+        <v>527</v>
+      </c>
+      <c r="E6" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>506</v>
+      </c>
+      <c r="B7" t="s">
+        <v>515</v>
+      </c>
+      <c r="C7" t="s">
+        <v>522</v>
+      </c>
+      <c r="D7" t="s">
+        <v>528</v>
+      </c>
+      <c r="E7" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>486</v>
+      </c>
+      <c r="B8" t="s">
+        <v>516</v>
+      </c>
+      <c r="C8" t="s">
+        <v>523</v>
+      </c>
+      <c r="D8" t="s">
+        <v>529</v>
+      </c>
+      <c r="E8" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>507</v>
+      </c>
+      <c r="D9" t="s">
+        <v>530</v>
+      </c>
+      <c r="E9" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B10" t="s">
+        <v>517</v>
+      </c>
+      <c r="C10" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>518</v>
+      </c>
+      <c r="C13" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>511</v>
+      </c>
+      <c r="B14" t="s">
+        <v>519</v>
+      </c>
+      <c r="C14" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>512</v>
+      </c>
+      <c r="B15" t="s">
+        <v>517</v>
+      </c>
+      <c r="C15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>537</v>
+      </c>
+      <c r="B6" t="s">
+        <v>543</v>
+      </c>
+      <c r="C6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>484</v>
+      </c>
+      <c r="B7" t="s">
+        <v>491</v>
+      </c>
+      <c r="C7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>539</v>
+      </c>
+      <c r="B9" t="s">
+        <v>544</v>
+      </c>
+      <c r="C9" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>540</v>
+      </c>
+      <c r="B10" t="s">
+        <v>545</v>
+      </c>
+      <c r="C10" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>542</v>
+      </c>
+      <c r="B12" t="s">
+        <v>494</v>
+      </c>
+      <c r="C12" t="s">
+        <v>501</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>552</v>
+      </c>
+      <c r="C7" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>553</v>
+      </c>
+      <c r="B8" t="s">
+        <v>557</v>
+      </c>
+      <c r="C8" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>557</v>
+      </c>
+      <c r="C9" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>555</v>
+      </c>
+      <c r="C13" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>556</v>
+      </c>
+      <c r="B14" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C15" t="s">
+        <v>564</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>568</v>
+      </c>
+      <c r="B7" t="s">
+        <v>584</v>
+      </c>
+      <c r="C7" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>569</v>
+      </c>
+      <c r="B8" t="s">
+        <v>585</v>
+      </c>
+      <c r="C8" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>570</v>
+      </c>
+      <c r="B9" t="s">
+        <v>586</v>
+      </c>
+      <c r="C9" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>572</v>
+      </c>
+      <c r="B11" t="s">
+        <v>587</v>
+      </c>
+      <c r="C11" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>573</v>
+      </c>
+      <c r="B12" t="s">
+        <v>588</v>
+      </c>
+      <c r="C12" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>575</v>
+      </c>
+      <c r="B16" t="s">
+        <v>589</v>
+      </c>
+      <c r="C16" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>577</v>
+      </c>
+      <c r="B20" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>578</v>
+      </c>
+      <c r="B21" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>579</v>
+      </c>
+      <c r="B22" t="s">
+        <v>591</v>
+      </c>
+      <c r="C22" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>580</v>
+      </c>
+      <c r="B23" t="s">
+        <v>592</v>
+      </c>
+      <c r="C23" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>593</v>
+      </c>
+      <c r="C24" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>582</v>
+      </c>
+      <c r="B28" t="s">
+        <v>594</v>
+      </c>
+      <c r="C28" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>583</v>
+      </c>
+      <c r="B29" t="s">
+        <v>595</v>
+      </c>
+      <c r="C29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" t="s">
+        <v>596</v>
+      </c>
+      <c r="C30" t="s">
+        <v>607</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>608</v>
+      </c>
+      <c r="B4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>609</v>
+      </c>
+      <c r="B5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C7" t="s">
+        <v>614</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>617</v>
+      </c>
+      <c r="B6" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>619</v>
+      </c>
+      <c r="B9" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>622</v>
+      </c>
+      <c r="B13" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>623</v>
+      </c>
+      <c r="B14" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>624</v>
+      </c>
+      <c r="B15" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>621</v>
+      </c>
+      <c r="B16" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>627</v>
+      </c>
+      <c r="B20" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>628</v>
+      </c>
+      <c r="B22" t="s">
+        <v>628</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -593,249 +6441,3498 @@
       </c>
     </row>
     <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>631</v>
+      </c>
+      <c r="B6" t="s">
+        <v>631</v>
+      </c>
+      <c r="C6" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>632</v>
+      </c>
+      <c r="B7" t="s">
+        <v>642</v>
+      </c>
+      <c r="C7" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>633</v>
+      </c>
+      <c r="B8" t="s">
+        <v>643</v>
+      </c>
+      <c r="C8" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>634</v>
+      </c>
+      <c r="B10" t="s">
+        <v>644</v>
+      </c>
+      <c r="C10" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>635</v>
+      </c>
+      <c r="B11" t="s">
+        <v>635</v>
+      </c>
+      <c r="C11" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>636</v>
+      </c>
+      <c r="B13" t="s">
+        <v>636</v>
+      </c>
+      <c r="C13" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>637</v>
+      </c>
+      <c r="B14" t="s">
+        <v>637</v>
+      </c>
+      <c r="C14" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>638</v>
+      </c>
+      <c r="B15" t="s">
+        <v>638</v>
+      </c>
+      <c r="C15" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>638</v>
+      </c>
+      <c r="B16" t="s">
+        <v>638</v>
+      </c>
+      <c r="C16" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>639</v>
+      </c>
+      <c r="B17" t="s">
+        <v>645</v>
+      </c>
+      <c r="C17" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>640</v>
+      </c>
+      <c r="B19" t="s">
+        <v>640</v>
+      </c>
+      <c r="C19" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>641</v>
+      </c>
+      <c r="B20" t="s">
+        <v>646</v>
+      </c>
+      <c r="C20" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>255</v>
+      </c>
+      <c r="B23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>255</v>
+      </c>
+      <c r="B24" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>632</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>651</v>
+      </c>
+      <c r="B3" t="s">
+        <v>654</v>
+      </c>
+      <c r="D3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>652</v>
+      </c>
+      <c r="B4" t="s">
+        <v>655</v>
+      </c>
+      <c r="C4" t="s">
+        <v>655</v>
+      </c>
+      <c r="D4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>653</v>
+      </c>
+      <c r="B5" t="s">
+        <v>656</v>
+      </c>
+      <c r="D5" t="s">
+        <v>656</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D3" t="s">
+        <v>660</v>
+      </c>
+      <c r="E3" t="s">
+        <v>660</v>
+      </c>
+      <c r="F3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D4" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C5" t="s">
+        <v>392</v>
+      </c>
+      <c r="D5" t="s">
+        <v>662</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>666</v>
+      </c>
+      <c r="B7" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>667</v>
+      </c>
+      <c r="B8" t="s">
+        <v>687</v>
+      </c>
+      <c r="C8" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>668</v>
+      </c>
+      <c r="B9" t="s">
+        <v>688</v>
+      </c>
+      <c r="C9" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>669</v>
+      </c>
+      <c r="B10" t="s">
+        <v>689</v>
+      </c>
+      <c r="C10" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>670</v>
+      </c>
+      <c r="B11" t="s">
+        <v>670</v>
+      </c>
+      <c r="C11" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>671</v>
+      </c>
+      <c r="B12" t="s">
+        <v>671</v>
+      </c>
+      <c r="C12" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>672</v>
+      </c>
+      <c r="B13" t="s">
+        <v>672</v>
+      </c>
+      <c r="C13" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>673</v>
+      </c>
+      <c r="B14" t="s">
+        <v>690</v>
+      </c>
+      <c r="C14" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>674</v>
+      </c>
+      <c r="B15" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>542</v>
+      </c>
+      <c r="B17" t="s">
+        <v>542</v>
+      </c>
+      <c r="C17" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>632</v>
+      </c>
+      <c r="B18" t="s">
+        <v>632</v>
+      </c>
+      <c r="C18" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>676</v>
+      </c>
+      <c r="B20" t="s">
+        <v>691</v>
+      </c>
+      <c r="C20" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>677</v>
+      </c>
+      <c r="B21" t="s">
+        <v>677</v>
+      </c>
+      <c r="C21" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>678</v>
+      </c>
+      <c r="B22" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>618</v>
+      </c>
+      <c r="B24" t="s">
+        <v>618</v>
+      </c>
+      <c r="C24" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>679</v>
+      </c>
+      <c r="B25" t="s">
+        <v>679</v>
+      </c>
+      <c r="C25" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>680</v>
+      </c>
+      <c r="B26" t="s">
+        <v>680</v>
+      </c>
+      <c r="C26" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>681</v>
+      </c>
+      <c r="B27" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>683</v>
+      </c>
+      <c r="B29" t="s">
+        <v>683</v>
+      </c>
+      <c r="C29" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>684</v>
+      </c>
+      <c r="B30" t="s">
+        <v>684</v>
+      </c>
+      <c r="C30" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>685</v>
+      </c>
+      <c r="B32" t="s">
+        <v>685</v>
+      </c>
+      <c r="C32" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>686</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>618</v>
+      </c>
+      <c r="B6" t="s">
+        <v>731</v>
+      </c>
+      <c r="C6" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>704</v>
+      </c>
+      <c r="B7" t="s">
+        <v>704</v>
+      </c>
+      <c r="C7" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>705</v>
+      </c>
+      <c r="B8" t="s">
+        <v>705</v>
+      </c>
+      <c r="C8" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>706</v>
+      </c>
+      <c r="B9" t="s">
+        <v>732</v>
+      </c>
+      <c r="C9" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>707</v>
+      </c>
+      <c r="B10" t="s">
+        <v>707</v>
+      </c>
+      <c r="C10" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>709</v>
+      </c>
+      <c r="B12" t="s">
+        <v>733</v>
+      </c>
+      <c r="C12" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>710</v>
+      </c>
+      <c r="B13" t="s">
+        <v>710</v>
+      </c>
+      <c r="C13" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>711</v>
+      </c>
+      <c r="B14" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>713</v>
+      </c>
+      <c r="B16" t="s">
+        <v>713</v>
+      </c>
+      <c r="C16" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>714</v>
+      </c>
+      <c r="B17" t="s">
+        <v>714</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>716</v>
+      </c>
+      <c r="B19" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>717</v>
+      </c>
+      <c r="B20" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>718</v>
+      </c>
+      <c r="B21" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>723</v>
+      </c>
+      <c r="B26" t="s">
+        <v>734</v>
+      </c>
+      <c r="C26" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>724</v>
+      </c>
+      <c r="B27" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>618</v>
+      </c>
+      <c r="B28" t="s">
+        <v>735</v>
+      </c>
+      <c r="C28" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>725</v>
+      </c>
+      <c r="B29" t="s">
+        <v>736</v>
+      </c>
+      <c r="C29" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>726</v>
+      </c>
+      <c r="B30" t="s">
+        <v>726</v>
+      </c>
+      <c r="C30" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>727</v>
+      </c>
+      <c r="B31" t="s">
+        <v>727</v>
+      </c>
+      <c r="C31" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>728</v>
+      </c>
+      <c r="B32" t="s">
+        <v>737</v>
+      </c>
+      <c r="C32" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>729</v>
+      </c>
+      <c r="B33" t="s">
+        <v>255</v>
+      </c>
+      <c r="C33" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>730</v>
+      </c>
+      <c r="B34" t="s">
+        <v>730</v>
+      </c>
+      <c r="C34" t="s">
+        <v>730</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>747</v>
+      </c>
+      <c r="B5" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>747</v>
+      </c>
+      <c r="B6" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>748</v>
+      </c>
+      <c r="B7" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>750</v>
+      </c>
+      <c r="B9" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>751</v>
+      </c>
+      <c r="B10" t="s">
+        <v>751</v>
+      </c>
+      <c r="C10" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>755</v>
+      </c>
+      <c r="B15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>756</v>
+      </c>
+      <c r="B16" t="s">
+        <v>756</v>
+      </c>
+      <c r="C16" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>758</v>
+      </c>
+      <c r="B18" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>761</v>
+      </c>
+      <c r="B21" t="s">
+        <v>770</v>
+      </c>
+      <c r="C21" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>762</v>
+      </c>
+      <c r="B22" t="s">
+        <v>771</v>
+      </c>
+      <c r="C22" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>763</v>
+      </c>
+      <c r="B23" t="s">
+        <v>772</v>
+      </c>
+      <c r="C23" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>764</v>
+      </c>
+      <c r="B24" t="s">
+        <v>773</v>
+      </c>
+      <c r="C24" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>767</v>
+      </c>
+      <c r="B27" t="s">
+        <v>767</v>
+      </c>
+      <c r="C27" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>768</v>
+      </c>
+      <c r="B28" t="s">
+        <v>768</v>
+      </c>
+      <c r="C28" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>769</v>
+      </c>
+      <c r="B29" t="s">
+        <v>769</v>
+      </c>
+      <c r="C29" t="s">
+        <v>769</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="C2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>19</v>
+        <v>799</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
+        <v>776</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
+        <v>777</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>801</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>817</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>778</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>802</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>818</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>779</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>591</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>603</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
+        <v>780</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>803</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>819</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>781</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>804</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>820</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>782</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>805</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>821</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
+        <v>783</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>806</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>822</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
+        <v>784</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>807</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>823</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>58</v>
+        <v>785</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>786</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>59</v>
+        <v>808</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>787</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>809</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>824</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>788</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>810</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>825</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
+        <v>789</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>811</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>826</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" t="s">
-        <v>63</v>
+        <v>790</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>791</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>812</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>827</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
+        <v>792</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>813</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>828</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>793</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>814</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>829</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>794</v>
+      </c>
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>795</v>
+      </c>
+      <c r="C23" t="s">
+        <v>815</v>
+      </c>
+      <c r="D23" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>796</v>
+      </c>
+      <c r="C24" t="s">
+        <v>816</v>
+      </c>
+      <c r="D24" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>797</v>
+      </c>
+      <c r="C25" t="s">
+        <v>481</v>
+      </c>
+      <c r="D25" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>798</v>
+      </c>
+      <c r="B26" t="s">
+        <v>800</v>
+      </c>
+      <c r="C26" t="s">
+        <v>478</v>
+      </c>
+      <c r="D26" t="s">
+        <v>481</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" t="s">
+        <v>842</v>
+      </c>
+      <c r="C2" t="s">
+        <v>842</v>
+      </c>
+      <c r="D2" t="s">
+        <v>842</v>
+      </c>
+      <c r="E2" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" t="s">
+        <v>843</v>
+      </c>
+      <c r="C3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" t="s">
+        <v>849</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>833</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>844</v>
+      </c>
+      <c r="D5" t="s">
+        <v>850</v>
+      </c>
+      <c r="E5" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C6" t="s">
+        <v>845</v>
+      </c>
+      <c r="E6" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>835</v>
+      </c>
+      <c r="D7" t="s">
+        <v>851</v>
+      </c>
+      <c r="E7" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>836</v>
+      </c>
+      <c r="C8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D8" t="s">
+        <v>851</v>
+      </c>
+      <c r="E8" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>837</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>838</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>846</v>
+      </c>
+      <c r="D10" t="s">
+        <v>852</v>
+      </c>
+      <c r="E10" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>839</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>847</v>
+      </c>
+      <c r="D11" t="s">
+        <v>853</v>
+      </c>
+      <c r="E11" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>834</v>
+      </c>
+      <c r="C12" t="s">
+        <v>848</v>
+      </c>
+      <c r="E12" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>840</v>
+      </c>
+      <c r="D13" t="s">
+        <v>854</v>
+      </c>
+      <c r="E13" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>841</v>
+      </c>
+      <c r="C14" t="s">
+        <v>848</v>
+      </c>
+      <c r="D14" t="s">
+        <v>854</v>
+      </c>
+      <c r="E14" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>837</v>
+      </c>
+      <c r="C15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>844</v>
+      </c>
+      <c r="D16" t="s">
+        <v>850</v>
+      </c>
+      <c r="E16" t="s">
+        <v>855</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>863</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>800</v>
+      </c>
+      <c r="C6" t="s">
+        <v>478</v>
+      </c>
+      <c r="D6" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>864</v>
+      </c>
+      <c r="C7" t="s">
+        <v>458</v>
+      </c>
+      <c r="D7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>441</v>
+      </c>
+      <c r="D8" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C9" t="s">
+        <v>420</v>
+      </c>
+      <c r="D9" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>873</v>
+      </c>
+      <c r="D10" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" t="s">
+        <v>864</v>
+      </c>
+      <c r="C12" t="s">
+        <v>461</v>
+      </c>
+      <c r="D12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>465</v>
+      </c>
+      <c r="C13" t="s">
+        <v>415</v>
+      </c>
+      <c r="D13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" t="s">
+        <v>865</v>
+      </c>
+      <c r="C14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>860</v>
+      </c>
+      <c r="B15" t="s">
+        <v>866</v>
+      </c>
+      <c r="C15" t="s">
+        <v>342</v>
+      </c>
+      <c r="D15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" t="s">
+        <v>340</v>
+      </c>
+      <c r="C16" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" t="s">
+        <v>867</v>
+      </c>
+      <c r="C17" t="s">
+        <v>517</v>
+      </c>
+      <c r="D17" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" t="s">
+        <v>875</v>
+      </c>
+      <c r="D18" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>876</v>
+      </c>
+      <c r="D19" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>868</v>
+      </c>
+      <c r="C22" t="s">
+        <v>336</v>
+      </c>
+      <c r="D22" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>862</v>
+      </c>
+      <c r="C23" t="s">
+        <v>877</v>
+      </c>
+      <c r="D23" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>869</v>
+      </c>
+      <c r="C24" t="s">
+        <v>295</v>
+      </c>
+      <c r="D24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>870</v>
+      </c>
+      <c r="C25" t="s">
+        <v>273</v>
+      </c>
+      <c r="D25" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" t="s">
+        <v>340</v>
+      </c>
+      <c r="C26" t="s">
+        <v>878</v>
+      </c>
+      <c r="D26" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>871</v>
+      </c>
+      <c r="C27" t="s">
+        <v>276</v>
+      </c>
+      <c r="D27" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>879</v>
+      </c>
+      <c r="D28" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>870</v>
+      </c>
+      <c r="C30" t="s">
+        <v>274</v>
+      </c>
+      <c r="D30" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" t="s">
+        <v>340</v>
+      </c>
+      <c r="D31" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>871</v>
+      </c>
+      <c r="C32" t="s">
+        <v>278</v>
+      </c>
+      <c r="D32" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>880</v>
+      </c>
+      <c r="D33" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>881</v>
+      </c>
+      <c r="D34" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>857</v>
+      </c>
+      <c r="D35" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>872</v>
+      </c>
+      <c r="C37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" t="s">
+        <v>846</v>
+      </c>
+      <c r="D38" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>849</v>
+      </c>
+      <c r="C39" t="s">
+        <v>852</v>
+      </c>
+      <c r="D39" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" t="s">
+        <v>857</v>
+      </c>
+      <c r="D40" t="s">
+        <v>855</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>863</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>891</v>
+      </c>
+      <c r="C4" t="s">
+        <v>914</v>
+      </c>
+      <c r="D4" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>892</v>
+      </c>
+      <c r="B5" t="s">
+        <v>907</v>
+      </c>
+      <c r="C5" t="s">
+        <v>588</v>
+      </c>
+      <c r="D5" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" t="s">
+        <v>915</v>
+      </c>
+      <c r="D6" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>893</v>
+      </c>
+      <c r="C7" t="s">
+        <v>916</v>
+      </c>
+      <c r="D7" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>894</v>
+      </c>
+      <c r="B8" t="s">
+        <v>908</v>
+      </c>
+      <c r="C8" t="s">
+        <v>803</v>
+      </c>
+      <c r="D8" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>895</v>
+      </c>
+      <c r="C9" t="s">
+        <v>917</v>
+      </c>
+      <c r="D9" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>896</v>
+      </c>
+      <c r="C10" t="s">
+        <v>918</v>
+      </c>
+      <c r="D10" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>580</v>
+      </c>
+      <c r="B11" t="s">
+        <v>909</v>
+      </c>
+      <c r="C11" t="s">
+        <v>593</v>
+      </c>
+      <c r="D11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>897</v>
+      </c>
+      <c r="B12" t="s">
+        <v>910</v>
+      </c>
+      <c r="C12" t="s">
+        <v>919</v>
+      </c>
+      <c r="D12" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>898</v>
+      </c>
+      <c r="C13" t="s">
+        <v>920</v>
+      </c>
+      <c r="D13" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>899</v>
+      </c>
+      <c r="C14" t="s">
+        <v>921</v>
+      </c>
+      <c r="D14" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>900</v>
+      </c>
+      <c r="C15" t="s">
+        <v>922</v>
+      </c>
+      <c r="D15" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>901</v>
+      </c>
+      <c r="C16" t="s">
+        <v>923</v>
+      </c>
+      <c r="D16" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>902</v>
+      </c>
+      <c r="B17" t="s">
+        <v>911</v>
+      </c>
+      <c r="C17" t="s">
+        <v>924</v>
+      </c>
+      <c r="D17" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>903</v>
+      </c>
+      <c r="B18" t="s">
+        <v>912</v>
+      </c>
+      <c r="C18" t="s">
+        <v>806</v>
+      </c>
+      <c r="D18" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>904</v>
+      </c>
+      <c r="C19" t="s">
+        <v>489</v>
+      </c>
+      <c r="D19" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>905</v>
+      </c>
+      <c r="B20" t="s">
+        <v>867</v>
+      </c>
+      <c r="C20" t="s">
+        <v>925</v>
+      </c>
+      <c r="D20" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>834</v>
+      </c>
+      <c r="C21" t="s">
+        <v>845</v>
+      </c>
+      <c r="D21" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>906</v>
+      </c>
+      <c r="B22" t="s">
+        <v>913</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2">
+        <v>2021</v>
+      </c>
+      <c r="C2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3">
+        <v>3497135</v>
+      </c>
+      <c r="C3">
+        <v>1873626</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="D3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5">
+        <v>2021</v>
+      </c>
+      <c r="C5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6">
+        <v>2020</v>
+      </c>
+      <c r="C6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8">
+        <v>2021</v>
+      </c>
+      <c r="C8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9">
+        <v>2020</v>
+      </c>
+      <c r="C9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10">
+        <v>2021</v>
+      </c>
+      <c r="C10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11">
+        <v>2020</v>
+      </c>
+      <c r="C11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
